--- a/data/trans_bre/P25_8-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P25_8-Estudios-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J11"/>
+  <dimension ref="A1:N14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -525,6 +525,10 @@
     <col width="14" customWidth="1" min="8" max="8"/>
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -542,14 +546,18 @@
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>Brecha de género relativa</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -571,27 +579,47 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>Mz1</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
         </is>
       </c>
     </row>
@@ -606,6 +634,10 @@
       <c r="H3" s="2" t="n"/>
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -620,42 +652,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>8,53</t>
+          <t>7,24</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>7,92</t>
+          <t>9,6</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>11,51</t>
+          <t>8,11</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>1,38</t>
+          <t>15,65</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>87,66%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>94,7%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>98,91%</t>
+          <t>60,71%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>7,99%</t>
+          <t>128,49%</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>70,26%</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>224,15%</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -668,42 +720,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>1,78; 14,74</t>
+          <t>-1,35; 16,12</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>3,21; 12,86</t>
+          <t>3,85; 14,98</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>4,71; 23,25</t>
+          <t>1,89; 13,34</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-5,57; 7,56</t>
+          <t>6,79; 24,39</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>13,12; 218,46</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>25,18; 216,71</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>29,16; 236,96</t>
+          <t>-8,28; 215,71</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-25,69; 54,99</t>
+          <t>29,46; 316,24</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>12,23; 157,89</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>39,08; 668,89</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -720,42 +792,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>7,82</t>
+          <t>10,2</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>4,29</t>
+          <t>6,92</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>7,87</t>
+          <t>8,28</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>8,49</t>
+          <t>6,18</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>49,5%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>29,75%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>42,45%</t>
+          <t>65,0%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>50,8%</t>
+          <t>49,4%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>45,62%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>32,82%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -768,42 +860,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>3,08; 13,01</t>
+          <t>4,1; 17,57</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-0,7; 8,22</t>
+          <t>1,69; 12,01</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>2,29; 13,52</t>
+          <t>2,19; 13,91</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>3,29; 13,68</t>
+          <t>-0,13; 12,26</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>15,17; 97,5</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-4,75; 65,47</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>10,38; 90,4</t>
+          <t>21,81; 134,6</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>16,29; 95,65</t>
+          <t>8,77; 108,25</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>9,82; 90,43</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>-2,02; 76,8</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -820,42 +932,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,22</t>
+          <t>1,11</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,18</t>
+          <t>0,16</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>4,71</t>
+          <t>4,81</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>2,12</t>
+          <t>5,86</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>1,02%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>1,08%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>24,74%</t>
+          <t>4,76%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>11,63%</t>
+          <t>0,9%</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>25,3%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>29,28%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -868,49 +1000,69 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-6,4; 6,25</t>
+          <t>-7,36; 7,79</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-4,63; 4,94</t>
+          <t>-5,06; 5,36</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-0,72; 10,18</t>
+          <t>-0,93; 9,86</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-5,16; 9,72</t>
+          <t>-1,63; 13,01</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-24,51; 33,27</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-23,9; 35,22</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-3,13; 61,47</t>
+          <t>-25,57; 39,82</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-24,79; 65,43</t>
+          <t>-24,45; 37,17</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>-4,5; 60,37</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>-6,95; 77,97</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -920,42 +1072,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>5,31</t>
+          <t>2,96</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>3,74</t>
+          <t>1,23</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>7,48</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>4,59</t>
+          <t>2,9</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>31,99%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>27,2%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>43,46%</t>
+          <t>19,66%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>26,76%</t>
+          <t>10,23%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>12,53%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -968,54 +1140,222 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>2,08; 8,69</t>
+          <t>-2,36; 7,83</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0,9; 6,32</t>
+          <t>-4,25; 6,42</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>4,1; 11,24</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0,9; 8,09</t>
+          <t>-3,9; 10,18</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>10,6; 57,93</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>5,19; 51,98</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>21,81; 74,69</t>
+          <t>-14,12; 62,19</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>4,56; 52,85</t>
+          <t>-27,97; 70,45</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>-14,68; 51,8</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>5,06</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>4,38</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>6,86</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>6,15</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>30,43%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>32,62%</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>40,28%</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>32,42%</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n"/>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>1,84; 8,12</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>1,33; 6,93</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>3,57; 10,13</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>2,18; 9,81</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>9,77; 54,23</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>8,21; 56,64</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>17,79; 64,8</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>10,21; 57,4</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="8">
     <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
+    <mergeCell ref="I1:N1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
+    <mergeCell ref="C1:H1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/trans_bre/P25_8-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P25_8-Estudios-trans_bre.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -125,7 +128,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -138,6 +141,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -504,7 +513,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N14"/>
+  <dimension ref="A1:N16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -650,419 +659,223 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>7,24</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>9,6</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>8,11</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>15,65</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>60,71%</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>128,49%</t>
-        </is>
-      </c>
-      <c r="K4" s="2" t="inlineStr">
-        <is>
-          <t>70,26%</t>
-        </is>
-      </c>
-      <c r="L4" s="2" t="inlineStr">
-        <is>
-          <t>224,15%</t>
-        </is>
-      </c>
-      <c r="M4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="N4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
+      <c r="C4" s="5" t="n">
+        <v>7.367712511752944</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>9.197056468816191</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>8.277178314825163</v>
+      </c>
+      <c r="F4" s="5" t="n">
+        <v>15.22910993077127</v>
+      </c>
+      <c r="G4" s="5" t="inlineStr"/>
+      <c r="H4" s="5" t="inlineStr"/>
+      <c r="I4" s="6" t="n">
+        <v>0.6158670367286625</v>
+      </c>
+      <c r="J4" s="6" t="n">
+        <v>1.23638907382968</v>
+      </c>
+      <c r="K4" s="6" t="n">
+        <v>0.7274054129400238</v>
+      </c>
+      <c r="L4" s="6" t="n">
+        <v>2.249182898663478</v>
+      </c>
+      <c r="M4" s="6" t="inlineStr"/>
+      <c r="N4" s="6" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>-1,35; 16,12</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>3,85; 14,98</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>1,89; 13,34</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>6,79; 24,39</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
-          <t>-8,28; 215,71</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>29,46; 316,24</t>
-        </is>
-      </c>
-      <c r="K5" s="2" t="inlineStr">
-        <is>
-          <t>12,23; 157,89</t>
-        </is>
-      </c>
-      <c r="L5" s="2" t="inlineStr">
-        <is>
-          <t>39,08; 668,89</t>
-        </is>
-      </c>
-      <c r="M5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="N5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>-1.232536853046774</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>3.394794014323548</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>2.159428550191827</v>
+      </c>
+      <c r="F5" s="5" t="n">
+        <v>6.47546866073897</v>
+      </c>
+      <c r="G5" s="5" t="inlineStr"/>
+      <c r="H5" s="5" t="inlineStr"/>
+      <c r="I5" s="6" t="n">
+        <v>-0.07032486847568675</v>
+      </c>
+      <c r="J5" s="6" t="n">
+        <v>0.2836049374404709</v>
+      </c>
+      <c r="K5" s="6" t="n">
+        <v>0.1334305270650859</v>
+      </c>
+      <c r="L5" s="6" t="n">
+        <v>0.371222236775712</v>
+      </c>
+      <c r="M5" s="6" t="inlineStr"/>
+      <c r="N5" s="6" t="inlineStr"/>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>16.50860509244069</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>14.56306231735848</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>13.48023543047852</v>
+      </c>
+      <c r="F6" s="5" t="n">
+        <v>23.87819892006898</v>
+      </c>
+      <c r="G6" s="5" t="inlineStr"/>
+      <c r="H6" s="5" t="inlineStr"/>
+      <c r="I6" s="6" t="n">
+        <v>2.192171553517673</v>
+      </c>
+      <c r="J6" s="6" t="n">
+        <v>3.120966896159408</v>
+      </c>
+      <c r="K6" s="6" t="n">
+        <v>1.603160376898115</v>
+      </c>
+      <c r="L6" s="6" t="n">
+        <v>6.686237893963801</v>
+      </c>
+      <c r="M6" s="6" t="inlineStr"/>
+      <c r="N6" s="6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>Secundaria o FP grado sup</t>
         </is>
       </c>
-      <c r="B6" s="3" t="inlineStr">
+      <c r="B7" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>10,2</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>6,92</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>8,28</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>6,18</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>65,0%</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>49,4%</t>
-        </is>
-      </c>
-      <c r="K6" s="2" t="inlineStr">
-        <is>
-          <t>45,62%</t>
-        </is>
-      </c>
-      <c r="L6" s="2" t="inlineStr">
-        <is>
-          <t>32,82%</t>
-        </is>
-      </c>
-      <c r="M6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="N6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n"/>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>4,1; 17,57</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>1,69; 12,01</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>2,19; 13,91</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>-0,13; 12,26</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I7" s="2" t="inlineStr">
-        <is>
-          <t>21,81; 134,6</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>8,77; 108,25</t>
-        </is>
-      </c>
-      <c r="K7" s="2" t="inlineStr">
-        <is>
-          <t>9,82; 90,43</t>
-        </is>
-      </c>
-      <c r="L7" s="2" t="inlineStr">
-        <is>
-          <t>-2,02; 76,8</t>
-        </is>
-      </c>
-      <c r="M7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="N7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
+      <c r="C7" s="5" t="n">
+        <v>9.688093267574176</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>6.267713091171076</v>
+      </c>
+      <c r="E7" s="5" t="n">
+        <v>8.190255218223303</v>
+      </c>
+      <c r="F7" s="5" t="n">
+        <v>6.134191628943897</v>
+      </c>
+      <c r="G7" s="5" t="inlineStr"/>
+      <c r="H7" s="5" t="inlineStr"/>
+      <c r="I7" s="6" t="n">
+        <v>0.6078491160622563</v>
+      </c>
+      <c r="J7" s="6" t="n">
+        <v>0.4229467663890517</v>
+      </c>
+      <c r="K7" s="6" t="n">
+        <v>0.4473969381789691</v>
+      </c>
+      <c r="L7" s="6" t="n">
+        <v>0.3238971963071808</v>
+      </c>
+      <c r="M7" s="6" t="inlineStr"/>
+      <c r="N7" s="6" t="inlineStr"/>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>Estudios universitarios o más</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>1,11</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>0,16</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>4,81</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>5,86</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>4,76%</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>0,9%</t>
-        </is>
-      </c>
-      <c r="K8" s="2" t="inlineStr">
-        <is>
-          <t>25,3%</t>
-        </is>
-      </c>
-      <c r="L8" s="2" t="inlineStr">
-        <is>
-          <t>29,28%</t>
-        </is>
-      </c>
-      <c r="M8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="N8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="n">
+        <v>3.111810596530815</v>
+      </c>
+      <c r="D8" s="5" t="n">
+        <v>0.6160081888236681</v>
+      </c>
+      <c r="E8" s="5" t="n">
+        <v>2.387805118388351</v>
+      </c>
+      <c r="F8" s="5" t="n">
+        <v>-0.458899378427572</v>
+      </c>
+      <c r="G8" s="5" t="inlineStr"/>
+      <c r="H8" s="5" t="inlineStr"/>
+      <c r="I8" s="6" t="n">
+        <v>0.1559530156494015</v>
+      </c>
+      <c r="J8" s="6" t="n">
+        <v>0.02603221170026341</v>
+      </c>
+      <c r="K8" s="6" t="n">
+        <v>0.1075936249354304</v>
+      </c>
+      <c r="L8" s="6" t="n">
+        <v>-0.02208957887074819</v>
+      </c>
+      <c r="M8" s="6" t="inlineStr"/>
+      <c r="N8" s="6" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>-7,36; 7,79</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>-5,06; 5,36</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>-0,93; 9,86</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>-1,63; 13,01</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I9" s="2" t="inlineStr">
-        <is>
-          <t>-25,57; 39,82</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>-24,45; 37,17</t>
-        </is>
-      </c>
-      <c r="K9" s="2" t="inlineStr">
-        <is>
-          <t>-4,5; 60,37</t>
-        </is>
-      </c>
-      <c r="L9" s="2" t="inlineStr">
-        <is>
-          <t>-6,95; 77,97</t>
-        </is>
-      </c>
-      <c r="M9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="N9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="n">
+        <v>16.43913173128175</v>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>11.47973732850768</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>13.89584671932542</v>
+      </c>
+      <c r="F9" s="5" t="n">
+        <v>12.14188010810011</v>
+      </c>
+      <c r="G9" s="5" t="inlineStr"/>
+      <c r="H9" s="5" t="inlineStr"/>
+      <c r="I9" s="6" t="n">
+        <v>1.242426475501008</v>
+      </c>
+      <c r="J9" s="6" t="n">
+        <v>0.9607862852951823</v>
+      </c>
+      <c r="K9" s="6" t="n">
+        <v>0.8984061219021312</v>
+      </c>
+      <c r="L9" s="6" t="n">
+        <v>0.7963257570004592</v>
+      </c>
+      <c r="M9" s="6" t="inlineStr"/>
+      <c r="N9" s="6" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>No Pertenece a Medición</t>
+          <t>Estudios universitarios o más</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1070,291 +883,234 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>2,96</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>1,23</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>2,9</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>19,66%</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>10,23%</t>
-        </is>
-      </c>
-      <c r="K10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="L10" s="2" t="inlineStr">
-        <is>
-          <t>12,53%</t>
-        </is>
-      </c>
-      <c r="M10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="N10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
+      <c r="C10" s="5" t="n">
+        <v>0.2479943698727116</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>0.3337710433895497</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>4.771734546967202</v>
+      </c>
+      <c r="F10" s="5" t="n">
+        <v>6.394824452144912</v>
+      </c>
+      <c r="G10" s="5" t="inlineStr"/>
+      <c r="H10" s="5" t="inlineStr"/>
+      <c r="I10" s="6" t="n">
+        <v>0.01049736598411592</v>
+      </c>
+      <c r="J10" s="6" t="n">
+        <v>0.01878273838018091</v>
+      </c>
+      <c r="K10" s="6" t="n">
+        <v>0.2500058776520971</v>
+      </c>
+      <c r="L10" s="6" t="n">
+        <v>0.324823342933192</v>
+      </c>
+      <c r="M10" s="6" t="inlineStr"/>
+      <c r="N10" s="6" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>-2,36; 7,83</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>-4,25; 6,42</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>-3,9; 10,18</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I11" s="2" t="inlineStr">
-        <is>
-          <t>-14,12; 62,19</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>-27,97; 70,45</t>
-        </is>
-      </c>
-      <c r="K11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="L11" s="2" t="inlineStr">
-        <is>
-          <t>-14,68; 51,8</t>
-        </is>
-      </c>
-      <c r="M11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="N11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>-9.249368825968311</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>-4.980799191486918</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>-1.09950588849717</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>-1.001789685159659</v>
+      </c>
+      <c r="G11" s="5" t="inlineStr"/>
+      <c r="H11" s="5" t="inlineStr"/>
+      <c r="I11" s="6" t="n">
+        <v>-0.3149921332740009</v>
+      </c>
+      <c r="J11" s="6" t="n">
+        <v>-0.2400382208137991</v>
+      </c>
+      <c r="K11" s="6" t="n">
+        <v>-0.05404807002827465</v>
+      </c>
+      <c r="L11" s="6" t="n">
+        <v>-0.04874843199584348</v>
+      </c>
+      <c r="M11" s="6" t="inlineStr"/>
+      <c r="N11" s="6" t="inlineStr"/>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="inlineStr">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>7.001464344871641</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>5.690849023678524</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>9.741696651102099</v>
+      </c>
+      <c r="F12" s="5" t="n">
+        <v>13.63030110289307</v>
+      </c>
+      <c r="G12" s="5" t="inlineStr"/>
+      <c r="H12" s="5" t="inlineStr"/>
+      <c r="I12" s="6" t="n">
+        <v>0.3698768637259278</v>
+      </c>
+      <c r="J12" s="6" t="n">
+        <v>0.3775356272483518</v>
+      </c>
+      <c r="K12" s="6" t="n">
+        <v>0.6022918354758526</v>
+      </c>
+      <c r="L12" s="6" t="n">
+        <v>0.8160083024237893</v>
+      </c>
+      <c r="M12" s="6" t="inlineStr"/>
+      <c r="N12" s="6" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="B12" s="3" t="inlineStr">
+      <c r="B13" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C12" s="2" t="inlineStr">
-        <is>
-          <t>5,06</t>
-        </is>
-      </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>4,38</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>6,86</t>
-        </is>
-      </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>6,15</t>
-        </is>
-      </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="I12" s="2" t="inlineStr">
-        <is>
-          <t>30,43%</t>
-        </is>
-      </c>
-      <c r="J12" s="2" t="inlineStr">
-        <is>
-          <t>32,62%</t>
-        </is>
-      </c>
-      <c r="K12" s="2" t="inlineStr">
-        <is>
-          <t>40,28%</t>
-        </is>
-      </c>
-      <c r="L12" s="2" t="inlineStr">
-        <is>
-          <t>32,42%</t>
-        </is>
-      </c>
-      <c r="M12" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="N12" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n"/>
-      <c r="B13" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C13" s="2" t="inlineStr">
-        <is>
-          <t>1,84; 8,12</t>
-        </is>
-      </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>1,33; 6,93</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>3,57; 10,13</t>
-        </is>
-      </c>
-      <c r="F13" s="2" t="inlineStr">
-        <is>
-          <t>2,18; 9,81</t>
-        </is>
-      </c>
-      <c r="G13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I13" s="2" t="inlineStr">
-        <is>
-          <t>9,77; 54,23</t>
-        </is>
-      </c>
-      <c r="J13" s="2" t="inlineStr">
-        <is>
-          <t>8,21; 56,64</t>
-        </is>
-      </c>
-      <c r="K13" s="2" t="inlineStr">
-        <is>
-          <t>17,79; 64,8</t>
-        </is>
-      </c>
-      <c r="L13" s="2" t="inlineStr">
-        <is>
-          <t>10,21; 57,4</t>
-        </is>
-      </c>
-      <c r="M13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="N13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
+      <c r="C13" s="5" t="n">
+        <v>5.701684003577368</v>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>4.798172748401167</v>
+      </c>
+      <c r="E13" s="5" t="n">
+        <v>6.826931081949905</v>
+      </c>
+      <c r="F13" s="5" t="n">
+        <v>7.780331451122116</v>
+      </c>
+      <c r="G13" s="5" t="inlineStr"/>
+      <c r="H13" s="5" t="inlineStr"/>
+      <c r="I13" s="6" t="n">
+        <v>0.3146783589936158</v>
+      </c>
+      <c r="J13" s="6" t="n">
+        <v>0.3360405785825105</v>
+      </c>
+      <c r="K13" s="6" t="n">
+        <v>0.3996312636393377</v>
+      </c>
+      <c r="L13" s="6" t="n">
+        <v>0.4605768882742322</v>
+      </c>
+      <c r="M13" s="6" t="inlineStr"/>
+      <c r="N13" s="6" t="inlineStr"/>
     </row>
     <row r="14">
-      <c r="A14" t="inlineStr">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="5" t="n">
+        <v>0.657012829031556</v>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>1.314115047073116</v>
+      </c>
+      <c r="E14" s="5" t="n">
+        <v>3.494969978772202</v>
+      </c>
+      <c r="F14" s="5" t="n">
+        <v>3.470237027173636</v>
+      </c>
+      <c r="G14" s="5" t="inlineStr"/>
+      <c r="H14" s="5" t="inlineStr"/>
+      <c r="I14" s="6" t="n">
+        <v>0.03083194645767451</v>
+      </c>
+      <c r="J14" s="6" t="n">
+        <v>0.0842335847058201</v>
+      </c>
+      <c r="K14" s="6" t="n">
+        <v>0.1751684733249604</v>
+      </c>
+      <c r="L14" s="6" t="n">
+        <v>0.1827159896929959</v>
+      </c>
+      <c r="M14" s="6" t="inlineStr"/>
+      <c r="N14" s="6" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="5" t="n">
+        <v>9.655947544610152</v>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>8.295230047820883</v>
+      </c>
+      <c r="E15" s="5" t="n">
+        <v>10.12559094599167</v>
+      </c>
+      <c r="F15" s="5" t="n">
+        <v>12.46140363204435</v>
+      </c>
+      <c r="G15" s="5" t="inlineStr"/>
+      <c r="H15" s="5" t="inlineStr"/>
+      <c r="I15" s="6" t="n">
+        <v>0.609479248121639</v>
+      </c>
+      <c r="J15" s="6" t="n">
+        <v>0.6875173926237121</v>
+      </c>
+      <c r="K15" s="6" t="n">
+        <v>0.6528044875832155</v>
+      </c>
+      <c r="L15" s="6" t="n">
+        <v>0.8419314225407138</v>
+      </c>
+      <c r="M15" s="6" t="inlineStr"/>
+      <c r="N15" s="6" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A4:A5"/>
+  <mergeCells count="7">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
     <mergeCell ref="I1:N1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A13:A15"/>
     <mergeCell ref="C1:H1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
